--- a/7. Statistic Analysis/Results/Java/Tool Types/Wilcoxon - true search.xlsx
+++ b/7. Statistic Analysis/Results/Java/Tool Types/Wilcoxon - true search.xlsx
@@ -14,7 +14,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t xml:space="preserve"><![CDATA[Valid]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[T]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[Z]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[p-value]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex & MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands & NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators & CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators & NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength & ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize & VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume & ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel & DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel & ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement & TimeToImplement]]></t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,379 +434,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.596372" customWidth="1"/>
-    <col min="2" max="2" width="9.593605" customWidth="1"/>
+    <col min="1" max="1" width="54.552101" customWidth="1"/>
+    <col min="2" max="2" width="6.596372" customWidth="1"/>
     <col min="3" max="3" width="9.593605" customWidth="1"/>
     <col min="4" max="4" width="9.593605" customWidth="1"/>
+    <col min="5" max="5" width="9.593605" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n" s="0">
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
         <v>36</v>
       </c>
-      <c r="B1" t="n" s="0">
+      <c r="C2" t="n" s="0">
         <v>303.500000</v>
       </c>
-      <c r="C1" t="n" s="0">
+      <c r="D2" t="n" s="0">
         <v>0.463462</v>
       </c>
-      <c r="D1" t="n" s="0">
+      <c r="E2" t="n" s="0">
         <v>0.643034</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>52</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="C3" t="n" s="0">
         <v>500.000000</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="D3" t="n" s="0">
         <v>1.721207</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="E3" t="n" s="0">
         <v>0.085214</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B3" t="n" s="0">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C4" t="n" s="0">
         <v>597.000000</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="D4" t="n" s="0">
         <v>1.252787</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="E4" t="n" s="0">
         <v>0.210284</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>36</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="C5" t="n" s="0">
         <v>285.500000</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="D5" t="n" s="0">
         <v>0.746252</v>
       </c>
-      <c r="D4" t="n" s="0">
+      <c r="E5" t="n" s="0">
         <v>0.455516</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n" s="0">
         <v>48</v>
       </c>
-      <c r="B5" t="n" s="0">
+      <c r="C6" t="n" s="0">
         <v>477.000000</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="D6" t="n" s="0">
         <v>1.138477</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="E6" t="n" s="0">
         <v>0.254922</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B6" t="n" s="0">
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C7" t="n" s="0">
         <v>570.000000</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="D7" t="n" s="0">
         <v>1.485263</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="E7" t="n" s="0">
         <v>0.137475</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B7" t="n" s="0">
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C8" t="n" s="0">
         <v>701.000000</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="D8" t="n" s="0">
         <v>0.357324</v>
       </c>
-      <c r="D7" t="n" s="0">
+      <c r="E8" t="n" s="0">
         <v>0.720849</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>50</v>
       </c>
-      <c r="B8" t="n" s="0">
+      <c r="C9" t="n" s="0">
         <v>517.000000</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="D9" t="n" s="0">
         <v>1.163220</v>
       </c>
-      <c r="D8" t="n" s="0">
+      <c r="E9" t="n" s="0">
         <v>0.244741</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B9" t="n" s="0">
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C10" t="n" s="0">
         <v>625.000000</v>
       </c>
-      <c r="C9" t="n" s="0">
+      <c r="D10" t="n" s="0">
         <v>1.011701</v>
       </c>
-      <c r="D9" t="n" s="0">
+      <c r="E10" t="n" s="0">
         <v>0.311682</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="C11" t="n" s="0">
         <v>572.500000</v>
       </c>
-      <c r="C10" t="n" s="0">
+      <c r="D11" t="n" s="0">
         <v>1.265945</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="E11" t="n" s="0">
         <v>0.205534</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n" s="0">
         <v>30</v>
       </c>
-      <c r="B11" t="n" s="0">
+      <c r="C12" t="n" s="0">
         <v>180.500000</v>
       </c>
-      <c r="C11" t="n" s="0">
+      <c r="D12" t="n" s="0">
         <v>1.069554</v>
       </c>
-      <c r="D11" t="n" s="0">
+      <c r="E12" t="n" s="0">
         <v>0.284821</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B12" t="n" s="0">
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C13" t="n" s="0">
         <v>630.000000</v>
       </c>
-      <c r="C12" t="n" s="0">
+      <c r="D13" t="n" s="0">
         <v>0.968650</v>
       </c>
-      <c r="D12" t="n" s="0">
+      <c r="E13" t="n" s="0">
         <v>0.332721</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n" s="0">
         <v>39</v>
       </c>
-      <c r="B13" t="n" s="0">
+      <c r="C14" t="n" s="0">
         <v>268.500000</v>
       </c>
-      <c r="C13" t="n" s="0">
+      <c r="D14" t="n" s="0">
         <v>1.695532</v>
       </c>
-      <c r="D13" t="n" s="0">
+      <c r="E14" t="n" s="0">
         <v>0.089975</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B14" t="n" s="0">
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C15" t="n" s="0">
         <v>661.000000</v>
       </c>
-      <c r="C14" t="n" s="0">
+      <c r="D15" t="n" s="0">
         <v>0.701733</v>
       </c>
-      <c r="D14" t="n" s="0">
+      <c r="E15" t="n" s="0">
         <v>0.482846</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n" s="0">
         <v>51</v>
       </c>
-      <c r="B15" t="n" s="0">
+      <c r="C16" t="n" s="0">
         <v>518.500000</v>
       </c>
-      <c r="C15" t="n" s="0">
+      <c r="D16" t="n" s="0">
         <v>1.354466</v>
       </c>
-      <c r="D15" t="n" s="0">
+      <c r="E16" t="n" s="0">
         <v>0.175589</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n" s="0">
         <v>52</v>
       </c>
-      <c r="B16" t="n" s="0">
+      <c r="C17" t="n" s="0">
         <v>625.000000</v>
       </c>
-      <c r="C16" t="n" s="0">
+      <c r="D17" t="n" s="0">
         <v>0.582843</v>
       </c>
-      <c r="D16" t="n" s="0">
+      <c r="E17" t="n" s="0">
         <v>0.560000</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="0">
         <v>4</v>
       </c>
-      <c r="B17" t="n" s="0">
+      <c r="C18" t="n" s="0">
         <v>5.000000</v>
       </c>
-      <c r="C17" t="n" s="0">
+      <c r="D18" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="D17" t="n" s="0">
+      <c r="E18" t="n" s="0">
         <v>1.000000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n" s="0">
         <v>3</v>
       </c>
-      <c r="B18" t="n" s="0">
+      <c r="C19" t="n" s="0">
         <v>2.000000</v>
       </c>
-      <c r="C18" t="n" s="0">
+      <c r="D19" t="n" s="0">
         <v>0.534522</v>
       </c>
-      <c r="D18" t="n" s="0">
+      <c r="E19" t="n" s="0">
         <v>0.592980</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n" s="0">
         <v>53</v>
       </c>
-      <c r="B19" t="n" s="0">
+      <c r="C20" t="n" s="0">
         <v>572.000000</v>
       </c>
-      <c r="C19" t="n" s="0">
+      <c r="D20" t="n" s="0">
         <v>1.270372</v>
       </c>
-      <c r="D19" t="n" s="0">
+      <c r="E20" t="n" s="0">
         <v>0.203953</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B20" t="n" s="0">
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C21" t="n" s="0">
         <v>545.000000</v>
       </c>
-      <c r="C20" t="n" s="0">
+      <c r="D21" t="n" s="0">
         <v>1.700518</v>
       </c>
-      <c r="D20" t="n" s="0">
+      <c r="E21" t="n" s="0">
         <v>0.089034</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B21" t="n" s="0">
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C22" t="n" s="0">
         <v>701.000000</v>
       </c>
-      <c r="C21" t="n" s="0">
+      <c r="D22" t="n" s="0">
         <v>0.357324</v>
       </c>
-      <c r="D21" t="n" s="0">
+      <c r="E22" t="n" s="0">
         <v>0.720849</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B22" t="n" s="0">
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C23" t="n" s="0">
         <v>611.000000</v>
       </c>
-      <c r="C22" t="n" s="0">
+      <c r="D23" t="n" s="0">
         <v>1.132244</v>
       </c>
-      <c r="D22" t="n" s="0">
+      <c r="E23" t="n" s="0">
         <v>0.257533</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B23" t="n" s="0">
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C24" t="n" s="0">
         <v>626.000000</v>
       </c>
-      <c r="C23" t="n" s="0">
+      <c r="D24" t="n" s="0">
         <v>1.003090</v>
       </c>
-      <c r="D23" t="n" s="0">
+      <c r="E24" t="n" s="0">
         <v>0.315818</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n" s="0">
-        <v>54</v>
-      </c>
-      <c r="B24" t="n" s="0">
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>54</v>
+      </c>
+      <c r="C25" t="n" s="0">
         <v>642.500000</v>
       </c>
-      <c r="C24" t="n" s="0">
+      <c r="D25" t="n" s="0">
         <v>0.861022</v>
       </c>
-      <c r="D24" t="n" s="0">
+      <c r="E25" t="n" s="0">
         <v>0.389227</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n" s="0">
         <v>4</v>
       </c>
-      <c r="B25" t="n" s="0">
+      <c r="C26" t="n" s="0">
         <v>5.000000</v>
       </c>
-      <c r="C25" t="n" s="0">
+      <c r="D26" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="D25" t="n" s="0">
+      <c r="E26" t="n" s="0">
         <v>1.000000</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n" s="0">
         <v>4</v>
       </c>
-      <c r="B26" t="n" s="0">
+      <c r="C27" t="n" s="0">
         <v>5.000000</v>
       </c>
-      <c r="C26" t="n" s="0">
+      <c r="D27" t="n" s="0">
         <v>0.000000</v>
       </c>
-      <c r="D26" t="n" s="0">
+      <c r="E27" t="n" s="0">
         <v>1.000000</v>
       </c>
     </row>
